--- a/xlsx/country_comparison/radical_redistr_pol_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -70,11 +58,12 @@
     <t xml:space="preserve">Prefers sustainable future*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas*</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)*</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,379 +440,271 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.382702765232968</v>
+        <v>0.410477795846558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.752703517945016</v>
+        <v>0.670930964239829</v>
       </c>
       <c r="E2" t="n">
-        <v>0.881979509829607</v>
+        <v>0.744286257234234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.598370573496111</v>
+        <v>0.669437974908923</v>
       </c>
       <c r="G2" t="n">
-        <v>0.605019471892137</v>
+        <v>0.817345461694808</v>
       </c>
       <c r="H2" t="n">
-        <v>0.670761041748619</v>
+        <v>0.848112605685568</v>
       </c>
       <c r="I2" t="n">
-        <v>0.744343077756244</v>
+        <v>0.725127730173656</v>
       </c>
       <c r="J2" t="n">
-        <v>0.669279878880101</v>
+        <v>0.770791010357976</v>
       </c>
       <c r="K2" t="n">
-        <v>0.817345461694808</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.848112605685568</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.724814115541133</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.770706337016876</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.422737592627734</v>
+        <v>0.422998865238901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.354762911396426</v>
+        <v>0.369932629020835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.660387750192438</v>
+        <v>0.632917148987785</v>
       </c>
       <c r="E3" t="n">
-        <v>0.812564364619181</v>
+        <v>0.670937221461187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.593176728095437</v>
+        <v>0.457393328180411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.527806333768865</v>
+        <v>0.816920760799125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632998456226799</v>
+        <v>0.837352904622364</v>
       </c>
       <c r="I3" t="n">
-        <v>0.670762747066905</v>
+        <v>0.676306813569887</v>
       </c>
       <c r="J3" t="n">
-        <v>0.457579459500443</v>
+        <v>0.697470165041275</v>
       </c>
       <c r="K3" t="n">
-        <v>0.816920760799125</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.837352904622364</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.675831530165077</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.696596503664327</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.414190778502927</v>
+        <v>0.414320739649134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.595648253088616</v>
+        <v>0.616567982061628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680987204503282</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.713280127381035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743500976587183</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.81462228490617</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.756962294490717</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="K4" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.703520370125625</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.671406780430398</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.776812968723143</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425499404919733</v>
+        <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.690994277929796</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483601909131396</v>
+        <v>0.501352982535347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787483813023996</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.876770446811719</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74609538238357</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664878143534609</v>
+        <v>0.930231790695484</v>
       </c>
       <c r="H5" t="n">
-        <v>0.73347898690154</v>
+        <v>0.938466265662205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.725986030915594</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="J5" t="n">
-        <v>0.685114600170972</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="K5" t="n">
-        <v>0.930231790695484</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.938466265662205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.689087905334306</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.689619979654131</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.436388567846079</v>
+        <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.37450861498383</v>
+        <v>0.523930159271177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54400229948967</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.661278534958537</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.497096533902024</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="G6" t="n">
-        <v>0.442405137881287</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="H6" t="n">
-        <v>0.389456592496737</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="I6" t="n">
-        <v>0.639772161098881</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.541929639804469</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="K6" t="n">
-        <v>0.404576421408372</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.407592835762763</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.489892191381658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.654584229780058</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.324832521986835</v>
+        <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.682646370364011</v>
+        <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.485603106129402</v>
+        <v>0.485395103641793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.649420989523518</v>
+        <v>0.421654543233796</v>
       </c>
       <c r="E7" t="n">
-        <v>0.949068510449696</v>
+        <v>0.721859577098009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.643446016542881</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.49870325508058</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.421697651071021</v>
-      </c>
+        <v>0.567833043339243</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7" t="n">
-        <v>0.721690329802909</v>
+        <v>0.594885214041605</v>
       </c>
       <c r="J7" t="n">
-        <v>0.567777112952296</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.594628213402205</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.890303845903875</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.46384562065648</v>
+        <v>0.89017740422893</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.463635219077665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.299170086737857</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.557446034112919</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.671740407264302</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.381096922735002</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.302200617956964</v>
-      </c>
+        <v>0.300083084889478</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.475070343020397</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.592646749060377</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.206771415907658</v>
+      <c r="I8" t="n">
+        <v>0.474757915976864</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.593250695193873</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.206703446618612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.493983005208346</v>
+        <v>0.499097199497334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.580747265340527</v>
+        <v>0.57447231505182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.809096347988613</v>
+        <v>0.652952489891304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.561113372661989</v>
+        <v>0.576305239322503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.398718648810441</v>
+        <v>0.888820570273345</v>
       </c>
       <c r="H9" t="n">
-        <v>0.574314013294519</v>
+        <v>0.880416868630143</v>
       </c>
       <c r="I9" t="n">
-        <v>0.652728422529955</v>
+        <v>0.585354296646937</v>
       </c>
       <c r="J9" t="n">
-        <v>0.576193685984308</v>
+        <v>0.757501496513123</v>
       </c>
       <c r="K9" t="n">
-        <v>0.888820570273345</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.880416868630143</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.585255137955561</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.757813235247556</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.336365747543784</v>
+        <v>0.336242924079427</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_pol_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -55,7 +67,7 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future*</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
     <t xml:space="preserve">"Governments should actively cooperate to have all countries
@@ -63,7 +75,7 @@
   </si>
   <si>
     <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)*</t>
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -440,10 +452,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.693996120467564</v>
@@ -452,33 +476,45 @@
         <v>0.410477795846558</v>
       </c>
       <c r="D2" t="n">
+        <v>0.752703517945016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.881979509829607</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.598370573496111</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.605019471892137</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.670930964239829</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>0.744286257234234</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.669437974908923</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0.848112605685568</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.725127730173656</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.770791010357976</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.422998865238901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.641188431291775</v>
@@ -487,33 +523,45 @@
         <v>0.369932629020835</v>
       </c>
       <c r="D3" t="n">
+        <v>0.660387750192438</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.812564364619181</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.593176728095437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.527806333768865</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.632917148987785</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.670937221461187</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.457393328180411</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>0.837352904622364</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.676306813569887</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.697470165041275</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.414320739649134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.680881448179833</v>
@@ -522,33 +570,45 @@
         <v>0.616567982061628</v>
       </c>
       <c r="D4" t="n">
+        <v>0.680987204503282</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.831184500933943</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.695788344040076</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.538162773640089</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.743644347389163</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>0.814701212857562</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.757048871605567</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>0.721853509181885</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.703520370125625</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.671270631778761</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.776836935461012</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0.704965329416964</v>
@@ -557,33 +617,45 @@
         <v>0.501352982535347</v>
       </c>
       <c r="D5" t="n">
+        <v>0.787483813023996</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.876770446811719</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.74609538238357</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.664878143534609</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.7335602187152</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>0.725922165695082</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>0.685126203737904</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.930231790695484</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>0.92816201896394</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.938466265662205</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.688883535477258</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.68963486840272</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
@@ -592,33 +664,45 @@
         <v>0.523930159271177</v>
       </c>
       <c r="D6" t="n">
+        <v>0.709363981944143</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.892471876813608</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.637051467662211</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.578161277543308</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.433349195600366</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>0.696851480613757</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.583790255087382</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.727098526374066</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
+        <v>0.729122438104651</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.741985444624183</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.641824096726743</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.834461320073758</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.682631646934764</v>
@@ -627,29 +711,41 @@
         <v>0.485395103641793</v>
       </c>
       <c r="D7" t="n">
+        <v>0.649420989523519</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.949068510449696</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.643446016542881</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.49870325508058</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.421654543233796</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
         <v>0.721859577098009</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.567833043339243</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="n">
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
         <v>0.594885214041605</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.89017740422893</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.463635219077665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.451810364536854</v>
@@ -657,24 +753,36 @@
       <c r="C8" t="n">
         <v>0.300083084889478</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="D8" t="n">
+        <v>0.557446034112919</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.671740407264302</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.381096922735002</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.302200617956964</v>
+      </c>
       <c r="H8"/>
-      <c r="I8" t="n">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
         <v>0.474757915976864</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.593250695193873</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.206703446618612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0.592122368373113</v>
@@ -683,27 +791,39 @@
         <v>0.499097199497334</v>
       </c>
       <c r="D9" t="n">
+        <v>0.580747265340527</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.809096347988613</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.561113372661989</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.398718648810441</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.57447231505182</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
         <v>0.652952489891304</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>0.576305239322503</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.888820570273345</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
+        <v>0.887006592651732</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.880416868630143</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>0.585354296646937</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.757501496513123</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.336242924079427</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_pol_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_share.xlsx
@@ -470,10 +470,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410477795846558</v>
+        <v>0.410804352683</v>
       </c>
       <c r="D2" t="n">
         <v>0.752703517945016</v>
@@ -517,10 +517,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369932629020835</v>
+        <v>0.369985760861996</v>
       </c>
       <c r="D3" t="n">
         <v>0.660387750192438</v>
@@ -564,10 +564,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616567982061628</v>
+        <v>0.616668833076667</v>
       </c>
       <c r="D4" t="n">
         <v>0.680987204503282</v>
@@ -611,10 +611,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501352982535347</v>
+        <v>0.501381130731594</v>
       </c>
       <c r="D5" t="n">
         <v>0.787483813023996</v>
@@ -785,10 +785,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499097199497334</v>
+        <v>0.499218371421509</v>
       </c>
       <c r="D9" t="n">
         <v>0.580747265340527</v>

--- a/xlsx/country_comparison/radical_redistr_pol_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,9 +20,6 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Europe Non-voters</t>
   </si>
   <si>
@@ -59,11 +56,11 @@
     <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
 coalition for climate action and global redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
+    <t xml:space="preserve">Accepts reparations for colonization and slavery in
 the form of funding education and technology transfers</t>
   </si>
   <si>
@@ -461,369 +458,342 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410804352683</v>
+        <v>0.75326124011094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.752703517945016</v>
+        <v>0.881979509829607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.881979509829607</v>
+        <v>0.598370573496111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.598370573496111</v>
+        <v>0.605019471892137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.605019471892137</v>
+        <v>0.670930964239829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.670930964239829</v>
+        <v>0.744286257234234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.744286257234234</v>
+        <v>0.669437974908923</v>
       </c>
       <c r="J2" t="n">
-        <v>0.669437974908923</v>
+        <v>0.817345461694808</v>
       </c>
       <c r="K2" t="n">
-        <v>0.817345461694808</v>
+        <v>0.848112605685568</v>
       </c>
       <c r="L2" t="n">
-        <v>0.848112605685568</v>
+        <v>0.725127730173656</v>
       </c>
       <c r="M2" t="n">
-        <v>0.725127730173656</v>
+        <v>0.770791010357976</v>
       </c>
       <c r="N2" t="n">
-        <v>0.770791010357976</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.422998865238901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369985760861996</v>
+        <v>0.661137818175294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.660387750192438</v>
+        <v>0.812564364619181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.812564364619181</v>
+        <v>0.593176728095437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.593176728095437</v>
+        <v>0.527806333768865</v>
       </c>
       <c r="G3" t="n">
-        <v>0.527806333768865</v>
+        <v>0.632917148987785</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632917148987785</v>
+        <v>0.670937221461187</v>
       </c>
       <c r="I3" t="n">
-        <v>0.670937221461187</v>
+        <v>0.457393328180411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.457393328180411</v>
+        <v>0.816920760799125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.816920760799125</v>
+        <v>0.837352904622364</v>
       </c>
       <c r="L3" t="n">
-        <v>0.837352904622364</v>
+        <v>0.676306813569887</v>
       </c>
       <c r="M3" t="n">
-        <v>0.676306813569887</v>
+        <v>0.697470165041275</v>
       </c>
       <c r="N3" t="n">
-        <v>0.697470165041275</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.414320739649134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616668833076667</v>
+        <v>0.680673282454082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680987204503282</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743644347389163</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="I4" t="n">
-        <v>0.814701212857562</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="J4" t="n">
-        <v>0.757048871605567</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.721853509181885</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.703520370125625</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.671270631778761</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="N4" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501381130731594</v>
+        <v>0.787954017306878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787483813023996</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.876770446811719</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74609538238357</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664878143534609</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7335602187152</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.725922165695082</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.685126203737904</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="K5" t="n">
-        <v>0.92816201896394</v>
+        <v>0.938466265662205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.938466265662205</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="M5" t="n">
-        <v>0.688883535477258</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="N5" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523930159271177</v>
+        <v>0.70986778173764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.709363981944143</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="E6" t="n">
-        <v>0.892471876813608</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.637051467662211</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="G6" t="n">
-        <v>0.578161277543308</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.433349195600366</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="I6" t="n">
-        <v>0.696851480613757</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="J6" t="n">
-        <v>0.583790255087382</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="K6" t="n">
-        <v>0.729122438104651</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="L6" t="n">
-        <v>0.741985444624183</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.641824096726743</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="N6" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.485395103641793</v>
+        <v>0.650554150600728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.649420989523519</v>
+        <v>0.949068510449696</v>
       </c>
       <c r="E7" t="n">
-        <v>0.949068510449696</v>
+        <v>0.643446016542881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.643446016542881</v>
+        <v>0.49870325508058</v>
       </c>
       <c r="G7" t="n">
-        <v>0.49870325508058</v>
+        <v>0.421654543233796</v>
       </c>
       <c r="H7" t="n">
-        <v>0.421654543233796</v>
+        <v>0.721859577098009</v>
       </c>
       <c r="I7" t="n">
-        <v>0.721859577098009</v>
-      </c>
-      <c r="J7" t="n">
         <v>0.567833043339243</v>
       </c>
+      <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
+      <c r="L7" t="n">
+        <v>0.594885214041605</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.594885214041605</v>
+        <v>0.89017740422893</v>
       </c>
       <c r="N7" t="n">
-        <v>0.89017740422893</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.463635219077665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.451810364536854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.300083084889478</v>
+        <v>0.558737352681819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.557446034112919</v>
+        <v>0.671740407264302</v>
       </c>
       <c r="E8" t="n">
-        <v>0.671740407264302</v>
+        <v>0.381096922735002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.381096922735002</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.302200617956964</v>
       </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
+      <c r="L8" t="n">
+        <v>0.474757915976864</v>
+      </c>
       <c r="M8" t="n">
-        <v>0.474757915976864</v>
+        <v>0.593250695193873</v>
       </c>
       <c r="N8" t="n">
-        <v>0.593250695193873</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.206703446618612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.591975291077805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499218371421509</v>
+        <v>0.581857202461739</v>
       </c>
       <c r="D9" t="n">
-        <v>0.580747265340527</v>
+        <v>0.809096347988613</v>
       </c>
       <c r="E9" t="n">
-        <v>0.809096347988613</v>
+        <v>0.561113372661989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.561113372661989</v>
+        <v>0.398718648810441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.398718648810441</v>
+        <v>0.57447231505182</v>
       </c>
       <c r="H9" t="n">
-        <v>0.57447231505182</v>
+        <v>0.652952489891304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.652952489891304</v>
+        <v>0.576305239322503</v>
       </c>
       <c r="J9" t="n">
-        <v>0.576305239322503</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="K9" t="n">
-        <v>0.887006592651732</v>
+        <v>0.880416868630143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.880416868630143</v>
+        <v>0.585354296646937</v>
       </c>
       <c r="M9" t="n">
-        <v>0.585354296646937</v>
+        <v>0.757501496513123</v>
       </c>
       <c r="N9" t="n">
-        <v>0.757501496513123</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.336242924079427</v>
       </c>
     </row>
